--- a/Downer/37744/res_comb.xlsx
+++ b/Downer/37744/res_comb.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Downer\37744\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4279AFAB-50A4-44FF-B392-3748FA0DA142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A405D050-AC26-4CBA-9456-08A87DF27699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4695" yWindow="1410" windowWidth="26715" windowHeight="18060" xr2:uid="{65367736-637D-4BB6-AE35-BC415DE60E9F}"/>
+    <workbookView xWindow="7230" yWindow="1530" windowWidth="21420" windowHeight="13965" xr2:uid="{65367736-637D-4BB6-AE35-BC415DE60E9F}"/>
   </bookViews>
   <sheets>
     <sheet name="res" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">res!$A$1:$I$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">res!$A$1:$I$244</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="152">
   <si>
     <t>type</t>
   </si>
@@ -80,13 +80,418 @@
     <t>label</t>
   </si>
   <si>
-    <t>1.0. Aggregate Acceptance Testing</t>
-  </si>
-  <si>
-    <t>ITP - Batter Hinge Extender</t>
-  </si>
-  <si>
-    <t>ITP - Batter Hinge Extender Rev 0</t>
+    <t>3.1 - Material delivery</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - Inspect for damage and wear, Confirm items are correct as per drawings and specifications</t>
+  </si>
+  <si>
+    <t>Frequency - On delivery</t>
+  </si>
+  <si>
+    <t>Inspection Type (Visual, other) - Visual</t>
+  </si>
+  <si>
+    <t>Inspection: Key - V</t>
+  </si>
+  <si>
+    <t>Inspection: By (Role Key) - CR, IP</t>
+  </si>
+  <si>
+    <t>3.2 - Certification of welding equipment</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - Confirming just one butt welding machine in use during life of project.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Accepted by Client as suitable for use</t>
+  </si>
+  <si>
+    <t>Verifying Document - Current calibration certificate/service record</t>
+  </si>
+  <si>
+    <t>Frequency - Prior to commencement of works</t>
+  </si>
+  <si>
+    <t>Inspection Type (Visual, other) - Hold point</t>
+  </si>
+  <si>
+    <t>Inspection: Key - H</t>
+  </si>
+  <si>
+    <t>Inspection: By (Role Key) - IP</t>
+  </si>
+  <si>
+    <t>4.1 - PE Welding – Operator and Equipment</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - Competency certificate of welder and certificate of fitness for welding equipment</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Testing of weld samples carried out by an IANZ accredited laboratory.</t>
+  </si>
+  <si>
+    <t>Frequency - During Installation</t>
+  </si>
+  <si>
+    <t>Inspection Type (Visual, other) - Inspection, Examine</t>
+  </si>
+  <si>
+    <t>Inspection: Key - I, E</t>
+  </si>
+  <si>
+    <t>Inspection: By (Role Key) - CR, IR</t>
+  </si>
+  <si>
+    <t>4.2 - Test Sampling</t>
+  </si>
+  <si>
+    <t>Verifying Document - Tensile test results from Kiwi Mechanical Ltd</t>
+  </si>
+  <si>
+    <t>Inspection Type (Visual, other) - Operation</t>
+  </si>
+  <si>
+    <t>Inspection: Key - O, R</t>
+  </si>
+  <si>
+    <t>Inspection: By (Role Key) - WS/CR, IR</t>
+  </si>
+  <si>
+    <t>4.3 - Weld Completion</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - Weld completed to required standard and specification</t>
+  </si>
+  <si>
+    <t>Frequency - Each weld</t>
+  </si>
+  <si>
+    <t>Inspection Type (Visual, other) - Check, Dimension Inspection</t>
+  </si>
+  <si>
+    <t>Inspection: Key - C, D, R</t>
+  </si>
+  <si>
+    <t>Inspection: By (Role Key) - WS, CR, IR</t>
+  </si>
+  <si>
+    <t>5.1 - Completion of QA</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - Ensure QA package complete.</t>
+  </si>
+  <si>
+    <t>Frequency - Before practical completion</t>
+  </si>
+  <si>
+    <t>Inspection Type (Visual, other) - Inspection, Monitor on Random Basis</t>
+  </si>
+  <si>
+    <t>Inspection: Key - I, M</t>
+  </si>
+  <si>
+    <t>SECTION 3 – RECEIVING INSPECTIONS</t>
+  </si>
+  <si>
+    <t>SECTION 4 – IN-PROCESS INSPECTIONS</t>
+  </si>
+  <si>
+    <t>SECTION 5 – FINAL INSPECTION AND HANDOVER</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Pipes shall be DN250 HDPE PE100 PN20</t>
+  </si>
+  <si>
+    <t>Verifying Document - Photo of pipe bundle(s) showing pipe classification.</t>
+  </si>
+  <si>
+    <t>○ Delivery docket/packing slip</t>
+  </si>
+  <si>
+    <t>○ Material and fittings are approved as per contract specification</t>
+  </si>
+  <si>
+    <t>Verifying Document - Current welding certificates of operatives</t>
+  </si>
+  <si>
+    <t>○ Current calibration record of welding Equipment</t>
+  </si>
+  <si>
+    <t>○ Tensile test results</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Pass/Fail</t>
+  </si>
+  <si>
+    <t>○ ISO 21307</t>
+  </si>
+  <si>
+    <t>○ ISO 13953 (Testing)</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - One pre-qualification per operator, one pilot weld per machine/per DN.</t>
+  </si>
+  <si>
+    <t>○ Test failures will require the previous weld and the following weld to be tested and passed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frequency - Every 50 welds per operator (or as requested by Client). </t>
+  </si>
+  <si>
+    <t>○ Test frequency to be reduced in response to consistent pass results, with Engineers approval.</t>
+  </si>
+  <si>
+    <t>holdpoint</t>
+  </si>
+  <si>
+    <t>AUTHORITY HOLDPOINT</t>
+  </si>
+  <si>
+    <t>Verifying Document - Power App or manual records</t>
+  </si>
+  <si>
+    <t>○ Data log from welding equipment</t>
+  </si>
+  <si>
+    <t>○ Photo Log</t>
+  </si>
+  <si>
+    <t>Verifying Document - Excel spreadsheet exported from Power App, includes weld photos and weld date from weld equipment.</t>
+  </si>
+  <si>
+    <t>○ EF controller printout for all EF joints</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - All necessary documents including HDPE welding compiled and handed over to ER in completeness.</t>
+  </si>
+  <si>
+    <t>ITP 561462-DOW-ITP-CV-01 Butt Welding</t>
+  </si>
+  <si>
+    <t>ITP 561462-DOW-ITP-CV-02 Watermain</t>
+  </si>
+  <si>
+    <t>3.1 - Material Delivery</t>
+  </si>
+  <si>
+    <t>Verifying Document - Photos,delivery docket, MDD results for backfill materials</t>
+  </si>
+  <si>
+    <t>Inspection: Key - C</t>
+  </si>
+  <si>
+    <t>Inspection: By (Role Key) - CR/IP</t>
+  </si>
+  <si>
+    <t>3.2 - Set out</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - Allignment set out as per design or as agreed with Engineer</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Set out matches drawings or as agreed with the Engineer</t>
+  </si>
+  <si>
+    <t>Verifying Document - Photos</t>
+  </si>
+  <si>
+    <t>4.1 - Trench Excavation</t>
+  </si>
+  <si>
+    <t>Inspection: By (Role Key) - SP/CR</t>
+  </si>
+  <si>
+    <t>4.2 - Foundation</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - Material trench floor is inspected to ensure suitable</t>
+  </si>
+  <si>
+    <t>Frequency - During installation</t>
+  </si>
+  <si>
+    <t>4.3 - Pipe Installation</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - Pipes installed and positioned as per design</t>
+  </si>
+  <si>
+    <t>Verifying Document - Photos, weld records (if required), Survey of position for asbuilt</t>
+  </si>
+  <si>
+    <t>4.4 - Embedment zone</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - Embedment material shall be AP20 or approved by the Engineer in writing</t>
+  </si>
+  <si>
+    <t>4.5 - Backfill and Compact</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Passing compaction results - 95% MDD backfill - basecourse</t>
+  </si>
+  <si>
+    <t>Verifying Document - Photos, compaction test results</t>
+  </si>
+  <si>
+    <t>Frequency - During Installation, compaction testing per 50m of pipeline</t>
+  </si>
+  <si>
+    <t>Inspection Type (Visual, other) - Visual, On site test</t>
+  </si>
+  <si>
+    <t>Inspection: By (Role Key) - SP/CR/IR</t>
+  </si>
+  <si>
+    <t>5.1 - Pressure Testing (PE pipeline)</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - PE pipelines to be tested in accordance with specifications</t>
+  </si>
+  <si>
+    <t>Verifying Document - Test Records</t>
+  </si>
+  <si>
+    <t>Frequency - Before commissioning</t>
+  </si>
+  <si>
+    <t>Inspection Type (Visual, other) - On-Site Test</t>
+  </si>
+  <si>
+    <t>Inspection: By (Role Key) - CR/IP/DR</t>
+  </si>
+  <si>
+    <t>5.2 - Disinfection</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - Disinfection to be completed in accordance with specifications</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Specification Attachment C, clause 4.12</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - Excavate to acheive required depth to invert as per drawings C501-C502.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceptance Criteria - Allow 100mm for bedding </t>
+  </si>
+  <si>
+    <t>○ Floor of trench to be even across width and length.</t>
+  </si>
+  <si>
+    <t>○ as shown on drawings C505</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Able to support loads</t>
+  </si>
+  <si>
+    <t>○ Free of very soft material or irregular or fragmented rock</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Pipe not damaged during installation</t>
+  </si>
+  <si>
+    <t>○ Pipe is centrally located within trench</t>
+  </si>
+  <si>
+    <t>○ Pipe levels are within tolerance and according to the drawings</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - min 100mm bedding</t>
+  </si>
+  <si>
+    <t>○ 150mm overlay</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - Backfill in 200mm layers of compacted material</t>
+  </si>
+  <si>
+    <t>○ Compaction testing one test every two layers as required</t>
+  </si>
+  <si>
+    <t>○ Conductive signal strip to be laid at 300mm above pipe</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Specification Attachment C, clause 4.7.5</t>
+  </si>
+  <si>
+    <t>○ No Thrust block failures,</t>
+  </si>
+  <si>
+    <t>○ No visible leaks,</t>
+  </si>
+  <si>
+    <t>○ Do not exceed make-up water limit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">○ Allow for minimum cover of 750mm. </t>
+  </si>
+  <si>
+    <t>ITP 561462-DOW-ITP-CV-03 EF Welding</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - Confirming just one EF welding machine in use during life of project.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Have peel decohesion test of weld samples carried out by an IANZ accredited laboratory.</t>
+  </si>
+  <si>
+    <t>Inspection Type (Visual, other) - Operation, Review</t>
+  </si>
+  <si>
+    <t>Inspection: By (Role Key) - WS/CR, IP</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - each pipe welding location check pipes to be welded</t>
+  </si>
+  <si>
+    <t>○ each EF fitting</t>
+  </si>
+  <si>
+    <t>○ check bags undamaged and sealed</t>
+  </si>
+  <si>
+    <t>○ EF fittings correct size, SDR, PE100 and pressure rating.</t>
+  </si>
+  <si>
+    <t>Verifying Document - Photo of markings and labels on pipe.</t>
+  </si>
+  <si>
+    <t>○ Delivery docket/ packing slip</t>
+  </si>
+  <si>
+    <t>○ Scan bar code on fitting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inspection Point: Quality Control Activity - Competency certificate of welder and certificate of fitness for welding equipment </t>
+  </si>
+  <si>
+    <t>○ Generator capacity adequate for the EF fittings.</t>
+  </si>
+  <si>
+    <t>○ Peel decohesion test results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frequency - Every 20 welds per operator (or as requested by Client). </t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - Weld completed to required standard and specification.</t>
+  </si>
+  <si>
+    <t>○ Only move strings after EF’s have cooled!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">○ PIPA POP001 version 8.1 2021 and POP014 </t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - all necessary documents including HDPE welding compiled and handed over to ER in completeness.</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - one pre-qualification per operator, one pilot weld per machine/per DN.</t>
+  </si>
+  <si>
+    <t>Verifying Document - Peel decohesion test results from Kiwi Mechanical Ltd</t>
   </si>
 </sst>
 </file>
@@ -229,7 +634,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -424,6 +829,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,12 +1005,21 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -971,22 +1397,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D45572-CFED-4CA4-A1B6-303542CA6BBC}">
-  <dimension ref="A1:I13"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I244"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="141.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1023,7 +1451,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
@@ -1033,71 +1461,1843 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
+      <c r="B13" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I74" s="2"/>
+    </row>
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>13</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>13</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>13</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>13</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>13</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>13</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>13</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>13</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>13</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>13</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>13</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>13</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>13</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>13</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>13</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>13</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>13</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>13</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>13</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>13</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>13</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>13</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>13</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>13</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>13</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>13</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>13</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>13</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>13</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>13</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>13</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>13</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>13</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>13</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>13</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>13</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>13</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>13</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>13</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>13</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>13</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>13</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>13</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>13</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>13</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>13</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>13</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>13</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>13</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>13</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>13</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>13</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>13</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>13</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>13</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>13</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>13</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>13</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>13</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>13</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>13</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>13</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>13</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>13</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>13</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>13</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>13</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>13</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>13</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>13</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>13</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="168" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="170" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="172" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="174" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="175" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="176" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D178" s="2"/>
+      <c r="E178" s="2"/>
+      <c r="F178" s="2"/>
+      <c r="G178" s="2"/>
+      <c r="H178" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I178" s="2"/>
+    </row>
+    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>13</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>13</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>13</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>13</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>13</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>13</v>
+      </c>
+      <c r="B186" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>13</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>13</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>13</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>13</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>13</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>13</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>13</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>13</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>13</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>13</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B198" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B199" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>13</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>13</v>
+      </c>
+      <c r="B203" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>13</v>
+      </c>
+      <c r="B204" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>13</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>13</v>
+      </c>
+      <c r="B206" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>13</v>
+      </c>
+      <c r="B207" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>13</v>
+      </c>
+      <c r="B208" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>13</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>13</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>13</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>13</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>13</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>13</v>
+      </c>
+      <c r="B215" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>13</v>
+      </c>
+      <c r="B216" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>13</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>13</v>
+      </c>
+      <c r="B218" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>13</v>
+      </c>
+      <c r="B219" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>13</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>13</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>13</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>13</v>
+      </c>
+      <c r="B224" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>13</v>
+      </c>
+      <c r="B225" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>13</v>
+      </c>
+      <c r="B226" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>13</v>
+      </c>
+      <c r="B227" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>13</v>
+      </c>
+      <c r="B228" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>13</v>
+      </c>
+      <c r="B229" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>13</v>
+      </c>
+      <c r="B230" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>13</v>
+      </c>
+      <c r="B231" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>13</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>13</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>13</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>13</v>
+      </c>
+      <c r="B235" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>13</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>13</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>13</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>13</v>
+      </c>
+      <c r="B241" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>13</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>13</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>13</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I84" xr:uid="{63D45572-CFED-4CA4-A1B6-303542CA6BBC}"/>
+  <autoFilter ref="A1:I244" xr:uid="{63D45572-CFED-4CA4-A1B6-303542CA6BBC}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="checklist"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
